--- a/GB Accounts 2025-26/GB Accounts Company 2026-03-31 (Mar26) Excel 2007/Financialaccounts.xlsx
+++ b/GB Accounts 2025-26/GB Accounts Company 2026-03-31 (Mar26) Excel 2007/Financialaccounts.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10329"/>
   <workbookPr showObjects="placeholders" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/antony/projects/diy-accounting/GB Accounts 2024-25/GB Accounts Company 2025-03-31 (Mar25) Excel 2007/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/antony/projects/diy-accounting/GB Accounts 2025-26/GB Accounts Company 2026-03-31 (Mar26) Excel 2007/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4295D926-FCF7-8840-888E-864BA3466AF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF3FDA19-251D-6E4A-8DA3-89F7D6D28D0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="29140" windowHeight="15920" tabRatio="949" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -13579,7 +13579,7 @@
       <c r="A4" s="27"/>
       <c r="B4" s="45">
         <f>Admin!B10</f>
-        <v>45412</v>
+        <v>45777</v>
       </c>
       <c r="C4" s="22">
         <f>[9]Apr!$M$1-C17</f>
@@ -13619,7 +13619,7 @@
       <c r="A5" s="27"/>
       <c r="B5" s="45">
         <f>Admin!B12</f>
-        <v>45443</v>
+        <v>45808</v>
       </c>
       <c r="C5" s="22">
         <f>[9]May!$M$1-C18</f>
@@ -13657,7 +13657,7 @@
       <c r="A6" s="27"/>
       <c r="B6" s="45">
         <f>Admin!B14</f>
-        <v>45473</v>
+        <v>45838</v>
       </c>
       <c r="C6" s="22">
         <f>[9]Jun!$M$1-C19</f>
@@ -13695,7 +13695,7 @@
       <c r="A7" s="27"/>
       <c r="B7" s="45">
         <f>Admin!B16</f>
-        <v>45504</v>
+        <v>45869</v>
       </c>
       <c r="C7" s="22">
         <f>[9]Jul!$M$1-C20</f>
@@ -13733,7 +13733,7 @@
       <c r="A8" s="27"/>
       <c r="B8" s="45">
         <f>Admin!B18</f>
-        <v>45535</v>
+        <v>45900</v>
       </c>
       <c r="C8" s="22">
         <f>[9]Aug!$M$1-C21</f>
@@ -13773,7 +13773,7 @@
       <c r="A9" s="27"/>
       <c r="B9" s="45">
         <f>Admin!B20</f>
-        <v>45565</v>
+        <v>45930</v>
       </c>
       <c r="C9" s="22">
         <f>[9]Sep!$M$1-C22</f>
@@ -13811,7 +13811,7 @@
       <c r="A10" s="27"/>
       <c r="B10" s="45">
         <f>Admin!B22</f>
-        <v>45596</v>
+        <v>45961</v>
       </c>
       <c r="C10" s="22">
         <f>[9]Oct!$M$1-C23</f>
@@ -13849,7 +13849,7 @@
       <c r="A11" s="27"/>
       <c r="B11" s="45">
         <f>Admin!B24</f>
-        <v>45626</v>
+        <v>45991</v>
       </c>
       <c r="C11" s="22">
         <f>[9]Nov!$M$1-C24</f>
@@ -13887,7 +13887,7 @@
       <c r="A12" s="27"/>
       <c r="B12" s="45">
         <f>Admin!B26</f>
-        <v>45657</v>
+        <v>46022</v>
       </c>
       <c r="C12" s="22">
         <f>[9]Dec!$M$1-C25</f>
@@ -13927,7 +13927,7 @@
       <c r="A13" s="27"/>
       <c r="B13" s="45">
         <f>Admin!B28</f>
-        <v>45688</v>
+        <v>46053</v>
       </c>
       <c r="C13" s="22">
         <f>[9]Jan!$M$1-C26</f>
@@ -13965,7 +13965,7 @@
       <c r="A14" s="27"/>
       <c r="B14" s="45">
         <f>Admin!B30</f>
-        <v>45716</v>
+        <v>46081</v>
       </c>
       <c r="C14" s="22">
         <f>[9]Feb!$M$1-C27</f>
@@ -14003,7 +14003,7 @@
       <c r="A15" s="27"/>
       <c r="B15" s="45">
         <f>Admin!B32</f>
-        <v>45747</v>
+        <v>46112</v>
       </c>
       <c r="C15" s="22">
         <f>[9]Mar!$M$1-C28</f>
@@ -14057,7 +14057,7 @@
       <c r="A17" s="27"/>
       <c r="B17" s="45">
         <f>B4</f>
-        <v>45412</v>
+        <v>45777</v>
       </c>
       <c r="C17" s="22">
         <f>[9]Apr!$M$2</f>
@@ -14093,7 +14093,7 @@
       <c r="A18" s="27"/>
       <c r="B18" s="45">
         <f t="shared" ref="B18:B28" si="3">B5</f>
-        <v>45443</v>
+        <v>45808</v>
       </c>
       <c r="C18" s="22">
         <f>[9]May!$M$2</f>
@@ -14127,7 +14127,7 @@
       <c r="A19" s="27"/>
       <c r="B19" s="45">
         <f t="shared" si="3"/>
-        <v>45473</v>
+        <v>45838</v>
       </c>
       <c r="C19" s="22">
         <f>[9]Jun!$M$2</f>
@@ -14161,7 +14161,7 @@
       <c r="A20" s="27"/>
       <c r="B20" s="45">
         <f t="shared" si="3"/>
-        <v>45504</v>
+        <v>45869</v>
       </c>
       <c r="C20" s="22">
         <f>[9]Jul!$M$2</f>
@@ -14195,7 +14195,7 @@
       <c r="A21" s="27"/>
       <c r="B21" s="45">
         <f t="shared" si="3"/>
-        <v>45535</v>
+        <v>45900</v>
       </c>
       <c r="C21" s="22">
         <f>[9]Aug!$M$2</f>
@@ -14229,7 +14229,7 @@
       <c r="A22" s="27"/>
       <c r="B22" s="45">
         <f t="shared" si="3"/>
-        <v>45565</v>
+        <v>45930</v>
       </c>
       <c r="C22" s="22">
         <f>[9]Sep!$M$2</f>
@@ -14263,7 +14263,7 @@
       <c r="A23" s="27"/>
       <c r="B23" s="45">
         <f t="shared" si="3"/>
-        <v>45596</v>
+        <v>45961</v>
       </c>
       <c r="C23" s="22">
         <f>[9]Oct!$M$2</f>
@@ -14297,7 +14297,7 @@
       <c r="A24" s="27"/>
       <c r="B24" s="45">
         <f t="shared" si="3"/>
-        <v>45626</v>
+        <v>45991</v>
       </c>
       <c r="C24" s="22">
         <f>[9]Nov!$M$2</f>
@@ -14331,7 +14331,7 @@
       <c r="A25" s="27"/>
       <c r="B25" s="45">
         <f t="shared" si="3"/>
-        <v>45657</v>
+        <v>46022</v>
       </c>
       <c r="C25" s="22">
         <f>[9]Dec!$M$2</f>
@@ -14365,7 +14365,7 @@
       <c r="A26" s="27"/>
       <c r="B26" s="45">
         <f t="shared" si="3"/>
-        <v>45688</v>
+        <v>46053</v>
       </c>
       <c r="C26" s="22">
         <f>[9]Jan!$M$2</f>
@@ -14399,7 +14399,7 @@
       <c r="A27" s="27"/>
       <c r="B27" s="45">
         <f t="shared" si="3"/>
-        <v>45716</v>
+        <v>46081</v>
       </c>
       <c r="C27" s="22">
         <f>[9]Feb!$M$2</f>
@@ -14433,7 +14433,7 @@
       <c r="A28" s="27"/>
       <c r="B28" s="45">
         <f t="shared" si="3"/>
-        <v>45747</v>
+        <v>46112</v>
       </c>
       <c r="C28" s="22">
         <f>[9]Mar!$M$2</f>
@@ -14776,7 +14776,7 @@
       <c r="A6" s="27"/>
       <c r="B6" s="119">
         <f>Admin!B9</f>
-        <v>45383</v>
+        <v>45748</v>
       </c>
       <c r="C6" s="118"/>
       <c r="D6" s="117">
@@ -14857,7 +14857,7 @@
       <c r="A8" s="27"/>
       <c r="B8" s="119">
         <f>Admin!B10</f>
-        <v>45412</v>
+        <v>45777</v>
       </c>
       <c r="C8" s="118"/>
       <c r="D8" s="117">
@@ -14971,7 +14971,7 @@
       <c r="A10" s="27"/>
       <c r="B10" s="119">
         <f>Admin!B12</f>
-        <v>45443</v>
+        <v>45808</v>
       </c>
       <c r="C10" s="118"/>
       <c r="D10" s="117">
@@ -15087,7 +15087,7 @@
       <c r="A12" s="27"/>
       <c r="B12" s="119">
         <f>Admin!B14</f>
-        <v>45473</v>
+        <v>45838</v>
       </c>
       <c r="C12" s="118"/>
       <c r="D12" s="117">
@@ -15201,7 +15201,7 @@
       <c r="A14" s="27"/>
       <c r="B14" s="119">
         <f>Admin!B16</f>
-        <v>45504</v>
+        <v>45869</v>
       </c>
       <c r="C14" s="118"/>
       <c r="D14" s="117">
@@ -15317,7 +15317,7 @@
       <c r="A16" s="27"/>
       <c r="B16" s="119">
         <f>Admin!B18</f>
-        <v>45535</v>
+        <v>45900</v>
       </c>
       <c r="C16" s="118"/>
       <c r="D16" s="117">
@@ -15431,7 +15431,7 @@
       <c r="A18" s="27"/>
       <c r="B18" s="119">
         <f>Admin!B20</f>
-        <v>45565</v>
+        <v>45930</v>
       </c>
       <c r="C18" s="118"/>
       <c r="D18" s="117">
@@ -15547,7 +15547,7 @@
       <c r="A20" s="27"/>
       <c r="B20" s="119">
         <f>Admin!B22</f>
-        <v>45596</v>
+        <v>45961</v>
       </c>
       <c r="C20" s="118"/>
       <c r="D20" s="117">
@@ -15661,7 +15661,7 @@
       <c r="A22" s="27"/>
       <c r="B22" s="119">
         <f>Admin!B24</f>
-        <v>45626</v>
+        <v>45991</v>
       </c>
       <c r="C22" s="118"/>
       <c r="D22" s="117">
@@ -15777,7 +15777,7 @@
       <c r="A24" s="27"/>
       <c r="B24" s="119">
         <f>Admin!B26</f>
-        <v>45657</v>
+        <v>46022</v>
       </c>
       <c r="C24" s="118"/>
       <c r="D24" s="117">
@@ -15891,7 +15891,7 @@
       <c r="A26" s="27"/>
       <c r="B26" s="119">
         <f>Admin!B28</f>
-        <v>45688</v>
+        <v>46053</v>
       </c>
       <c r="C26" s="118"/>
       <c r="D26" s="117">
@@ -16005,7 +16005,7 @@
       <c r="A28" s="27"/>
       <c r="B28" s="119">
         <f>Admin!B30</f>
-        <v>45716</v>
+        <v>46081</v>
       </c>
       <c r="C28" s="118"/>
       <c r="D28" s="117">
@@ -16121,7 +16121,7 @@
       <c r="A30" s="27"/>
       <c r="B30" s="119">
         <f>Admin!B32</f>
-        <v>45747</v>
+        <v>46112</v>
       </c>
       <c r="C30" s="118"/>
       <c r="D30" s="117">
@@ -16278,7 +16278,7 @@
     <col min="10" max="10" width="6.33203125" style="256" customWidth="1"/>
     <col min="11" max="11" width="7.1640625" style="256" customWidth="1"/>
     <col min="12" max="12" width="9.1640625" style="256"/>
-    <col min="13" max="13" width="9.1640625" style="256" customWidth="1"/>
+    <col min="13" max="13" width="11.5" style="256" customWidth="1"/>
     <col min="14" max="14" width="9.1640625" style="256"/>
     <col min="15" max="15" width="16" style="256" customWidth="1"/>
     <col min="16" max="16" width="9.1640625" style="256"/>
@@ -16311,7 +16311,7 @@
       <c r="A2" s="253"/>
       <c r="B2" s="329">
         <f>DATE(YEAR(B4),MONTH(B4),1)-1</f>
-        <v>45291</v>
+        <v>45657</v>
       </c>
       <c r="C2" s="253"/>
       <c r="D2" s="634"/>
@@ -16333,7 +16333,7 @@
       <c r="A3" s="253"/>
       <c r="B3" s="330">
         <f>DATE(YEAR(B4),MONTH(B4),1)</f>
-        <v>45292</v>
+        <v>45658</v>
       </c>
       <c r="C3" s="253"/>
       <c r="D3" s="635" t="s">
@@ -16343,7 +16343,7 @@
       <c r="F3" s="635"/>
       <c r="G3" s="259" t="str">
         <f>TEXT(YEAR(F21)-1,"0") &amp; "-" &amp; TEXT(YEAR(F21)-2000,"0")</f>
-        <v>2024-25</v>
+        <v>2025-26</v>
       </c>
       <c r="H3" s="253"/>
       <c r="I3" s="253"/>
@@ -16355,7 +16355,7 @@
       <c r="M3" s="636"/>
       <c r="N3" s="258" t="str">
         <f>G3</f>
-        <v>2024-25</v>
+        <v>2025-26</v>
       </c>
       <c r="O3" s="253"/>
       <c r="P3" s="253"/>
@@ -16365,7 +16365,7 @@
       <c r="A4" s="253"/>
       <c r="B4" s="330">
         <f>DATE(YEAR(B6),MONTH(B6),1)-1</f>
-        <v>45322</v>
+        <v>45688</v>
       </c>
       <c r="C4" s="253"/>
       <c r="D4" s="253"/>
@@ -16391,7 +16391,7 @@
       <c r="A5" s="253"/>
       <c r="B5" s="330">
         <f>DATE(YEAR(B6),MONTH(B6),1)</f>
-        <v>45323</v>
+        <v>45689</v>
       </c>
       <c r="C5" s="253"/>
       <c r="D5" s="253" t="s">
@@ -16400,7 +16400,7 @@
       <c r="E5" s="253"/>
       <c r="F5" s="290">
         <f>B8</f>
-        <v>45382</v>
+        <v>45747</v>
       </c>
       <c r="G5" s="310">
         <v>100</v>
@@ -16422,7 +16422,7 @@
       <c r="A6" s="253"/>
       <c r="B6" s="330">
         <f>DATE(YEAR(B8),MONTH(B8),1)-1</f>
-        <v>45351</v>
+        <v>45716</v>
       </c>
       <c r="C6" s="253"/>
       <c r="D6" s="253" t="s">
@@ -16431,7 +16431,7 @@
       <c r="E6" s="253"/>
       <c r="F6" s="290">
         <f>B8</f>
-        <v>45382</v>
+        <v>45747</v>
       </c>
       <c r="G6" s="310">
         <v>18</v>
@@ -16443,16 +16443,16 @@
       <c r="J6" s="185"/>
       <c r="K6" s="185">
         <f>YEAR(L6)</f>
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="L6" s="638">
         <f>B9</f>
-        <v>45383</v>
+        <v>45748</v>
       </c>
       <c r="M6" s="639"/>
       <c r="N6" s="638">
         <f>B32</f>
-        <v>45747</v>
+        <v>46112</v>
       </c>
       <c r="O6" s="641"/>
       <c r="P6" s="310">
@@ -16466,7 +16466,7 @@
       <c r="A7" s="253"/>
       <c r="B7" s="330">
         <f>DATE(YEAR(B8),MONTH(B8),1)</f>
-        <v>45352</v>
+        <v>45717</v>
       </c>
       <c r="C7" s="253"/>
       <c r="D7" s="253" t="s">
@@ -16475,7 +16475,7 @@
       <c r="E7" s="253"/>
       <c r="F7" s="290">
         <f>B32</f>
-        <v>45747</v>
+        <v>46112</v>
       </c>
       <c r="G7" s="310">
         <v>100</v>
@@ -16487,16 +16487,16 @@
       <c r="J7" s="185"/>
       <c r="K7" s="185">
         <f>YEAR(L7)</f>
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="L7" s="638">
         <f>B33</f>
-        <v>45748</v>
+        <v>46113</v>
       </c>
       <c r="M7" s="639"/>
       <c r="N7" s="638">
         <f>B56</f>
-        <v>46112</v>
+        <v>46477</v>
       </c>
       <c r="O7" s="641"/>
       <c r="P7" s="310">
@@ -16510,7 +16510,7 @@
       <c r="A8" s="253"/>
       <c r="B8" s="330">
         <f>DATE(YEAR(B10),MONTH(B10),1)-1</f>
-        <v>45382</v>
+        <v>45747</v>
       </c>
       <c r="C8" s="253"/>
       <c r="D8" s="253" t="s">
@@ -16519,7 +16519,7 @@
       <c r="E8" s="253"/>
       <c r="F8" s="290">
         <f>B32</f>
-        <v>45747</v>
+        <v>46112</v>
       </c>
       <c r="G8" s="310">
         <v>18</v>
@@ -16539,7 +16539,7 @@
       <c r="A9" s="253"/>
       <c r="B9" s="330">
         <f>DATE(YEAR(B10),MONTH(B10),1)</f>
-        <v>45383</v>
+        <v>45748</v>
       </c>
       <c r="C9" s="253"/>
       <c r="D9" s="253"/>
@@ -16565,7 +16565,7 @@
       <c r="A10" s="253"/>
       <c r="B10" s="330">
         <f>DATE(YEAR(B12),MONTH(B12),1)-1</f>
-        <v>45412</v>
+        <v>45777</v>
       </c>
       <c r="C10" s="253"/>
       <c r="D10" s="637" t="s">
@@ -16580,14 +16580,14 @@
       <c r="K10" s="253"/>
       <c r="L10" s="290">
         <f>B8</f>
-        <v>45382</v>
+        <v>45747</v>
       </c>
       <c r="M10" s="255" t="s">
         <v>522</v>
       </c>
       <c r="N10" s="292">
         <f>B8</f>
-        <v>45382</v>
+        <v>45747</v>
       </c>
       <c r="O10" s="253"/>
       <c r="P10" s="255"/>
@@ -16597,7 +16597,7 @@
       <c r="A11" s="253"/>
       <c r="B11" s="330">
         <f>DATE(YEAR(B12),MONTH(B12),1)</f>
-        <v>45413</v>
+        <v>45778</v>
       </c>
       <c r="C11" s="253"/>
       <c r="D11" s="253" t="s">
@@ -16618,14 +16618,14 @@
       <c r="K11" s="253"/>
       <c r="L11" s="290">
         <f>B32</f>
-        <v>45747</v>
+        <v>46112</v>
       </c>
       <c r="M11" s="265" t="s">
         <v>522</v>
       </c>
       <c r="N11" s="292">
         <f>B32</f>
-        <v>45747</v>
+        <v>46112</v>
       </c>
       <c r="O11" s="255"/>
       <c r="P11" s="255"/>
@@ -16635,7 +16635,7 @@
       <c r="A12" s="253"/>
       <c r="B12" s="330">
         <f>DATE(YEAR(B14),MONTH(B14),1)-1</f>
-        <v>45443</v>
+        <v>45808</v>
       </c>
       <c r="C12" s="253"/>
       <c r="D12" s="253"/>
@@ -16657,7 +16657,7 @@
       <c r="A13" s="253"/>
       <c r="B13" s="330">
         <f>DATE(YEAR(B14),MONTH(B14),1)</f>
-        <v>45444</v>
+        <v>45809</v>
       </c>
       <c r="C13" s="253"/>
       <c r="D13" s="635" t="s">
@@ -16683,7 +16683,7 @@
       <c r="A14" s="253"/>
       <c r="B14" s="330">
         <f>DATE(YEAR(B16),MONTH(B16),1)-1</f>
-        <v>45473</v>
+        <v>45838</v>
       </c>
       <c r="C14" s="253"/>
       <c r="D14" s="253"/>
@@ -16711,7 +16711,7 @@
       <c r="A15" s="253"/>
       <c r="B15" s="330">
         <f>DATE(YEAR(B16),MONTH(B16),1)</f>
-        <v>45474</v>
+        <v>45839</v>
       </c>
       <c r="C15" s="253"/>
       <c r="D15" s="637" t="s">
@@ -16737,7 +16737,7 @@
       <c r="A16" s="253"/>
       <c r="B16" s="330">
         <f>DATE(YEAR(B18),MONTH(B18),1)-1</f>
-        <v>45504</v>
+        <v>45869</v>
       </c>
       <c r="C16" s="253"/>
       <c r="D16" s="637" t="s">
@@ -16769,7 +16769,7 @@
       <c r="A17" s="253"/>
       <c r="B17" s="330">
         <f>DATE(YEAR(B18),MONTH(B18),1)</f>
-        <v>45505</v>
+        <v>45870</v>
       </c>
       <c r="C17" s="253"/>
       <c r="D17" s="637" t="s">
@@ -16801,7 +16801,7 @@
       <c r="A18" s="253"/>
       <c r="B18" s="330">
         <f>DATE(YEAR(B20),MONTH(B20),1)-1</f>
-        <v>45535</v>
+        <v>45900</v>
       </c>
       <c r="C18" s="253"/>
       <c r="D18" s="637" t="s">
@@ -16827,7 +16827,7 @@
       <c r="A19" s="253"/>
       <c r="B19" s="330">
         <f>DATE(YEAR(B20),MONTH(B20),1)</f>
-        <v>45536</v>
+        <v>45901</v>
       </c>
       <c r="C19" s="253"/>
       <c r="D19" s="637" t="s">
@@ -16850,11 +16850,11 @@
       </c>
       <c r="N19" s="254">
         <f>B9</f>
-        <v>45383</v>
+        <v>45748</v>
       </c>
       <c r="O19" s="313">
         <f>B26</f>
-        <v>45657</v>
+        <v>46022</v>
       </c>
       <c r="P19" s="253"/>
       <c r="Q19" s="253"/>
@@ -16863,7 +16863,7 @@
       <c r="A20" s="253"/>
       <c r="B20" s="330">
         <f>DATE(YEAR(B22),MONTH(B22),1)-1</f>
-        <v>45565</v>
+        <v>45930</v>
       </c>
       <c r="C20" s="253"/>
       <c r="D20" s="253"/>
@@ -16885,7 +16885,7 @@
       <c r="A21" s="253"/>
       <c r="B21" s="330">
         <f>DATE(YEAR(B22),MONTH(B22),1)</f>
-        <v>45566</v>
+        <v>45931</v>
       </c>
       <c r="C21" s="253"/>
       <c r="D21" s="9" t="s">
@@ -16893,7 +16893,7 @@
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="328">
-        <v>45747</v>
+        <v>46112</v>
       </c>
       <c r="G21" s="255"/>
       <c r="H21" s="253"/>
@@ -16908,7 +16908,7 @@
       </c>
       <c r="N21" s="254">
         <f>B27</f>
-        <v>45658</v>
+        <v>46023</v>
       </c>
       <c r="O21" s="315"/>
       <c r="P21" s="253"/>
@@ -16918,7 +16918,7 @@
       <c r="A22" s="253"/>
       <c r="B22" s="330">
         <f>DATE(YEAR(B24),MONTH(B24),1)-1</f>
-        <v>45596</v>
+        <v>45961</v>
       </c>
       <c r="C22" s="253"/>
       <c r="D22" s="253"/>
@@ -16940,7 +16940,7 @@
       <c r="A23" s="253"/>
       <c r="B23" s="330">
         <f>DATE(YEAR(B24),MONTH(B24),1)</f>
-        <v>45597</v>
+        <v>45962</v>
       </c>
       <c r="C23" s="253"/>
       <c r="F23" s="293"/>
@@ -16949,7 +16949,7 @@
       <c r="A24" s="253"/>
       <c r="B24" s="330">
         <f>DATE(YEAR(B26),MONTH(B26),1)-1</f>
-        <v>45626</v>
+        <v>45991</v>
       </c>
       <c r="C24" s="253"/>
     </row>
@@ -16957,7 +16957,7 @@
       <c r="A25" s="253"/>
       <c r="B25" s="330">
         <f>DATE(YEAR(B26),MONTH(B26),1)</f>
-        <v>45627</v>
+        <v>45992</v>
       </c>
       <c r="C25" s="253"/>
       <c r="F25" s="267"/>
@@ -16967,7 +16967,7 @@
       <c r="A26" s="253"/>
       <c r="B26" s="330">
         <f>DATE(YEAR(B28),MONTH(B28),1)-1</f>
-        <v>45657</v>
+        <v>46022</v>
       </c>
       <c r="C26" s="253"/>
       <c r="G26" s="256"/>
@@ -16976,7 +16976,7 @@
       <c r="A27" s="253"/>
       <c r="B27" s="330">
         <f>DATE(YEAR(B28),MONTH(B28),1)</f>
-        <v>45658</v>
+        <v>46023</v>
       </c>
       <c r="C27" s="253"/>
       <c r="G27" s="256"/>
@@ -16985,7 +16985,7 @@
       <c r="A28" s="253"/>
       <c r="B28" s="330">
         <f>DATE(YEAR(B30),MONTH(B30),1)-1</f>
-        <v>45688</v>
+        <v>46053</v>
       </c>
       <c r="C28" s="253"/>
     </row>
@@ -16993,7 +16993,7 @@
       <c r="A29" s="253"/>
       <c r="B29" s="330">
         <f>DATE(YEAR(B30),MONTH(B30),1)</f>
-        <v>45689</v>
+        <v>46054</v>
       </c>
       <c r="C29" s="253"/>
     </row>
@@ -17001,7 +17001,7 @@
       <c r="A30" s="253"/>
       <c r="B30" s="330">
         <f>DATE(YEAR(B32),MONTH(B32),1)-1</f>
-        <v>45716</v>
+        <v>46081</v>
       </c>
       <c r="C30" s="253"/>
     </row>
@@ -17009,7 +17009,7 @@
       <c r="A31" s="253"/>
       <c r="B31" s="330">
         <f>DATE(YEAR(B32),MONTH(B32),1)</f>
-        <v>45717</v>
+        <v>46082</v>
       </c>
       <c r="C31" s="253"/>
     </row>
@@ -17017,7 +17017,7 @@
       <c r="A32" s="253"/>
       <c r="B32" s="331">
         <f>F21</f>
-        <v>45747</v>
+        <v>46112</v>
       </c>
       <c r="C32" s="253"/>
     </row>
@@ -17025,7 +17025,7 @@
       <c r="A33" s="253"/>
       <c r="B33" s="330">
         <f>DATE(YEAR(B34),MONTH(B34),1)</f>
-        <v>45748</v>
+        <v>46113</v>
       </c>
       <c r="C33" s="253"/>
     </row>
@@ -17033,7 +17033,7 @@
       <c r="A34" s="253"/>
       <c r="B34" s="330">
         <f>DATE(IF(MONTH(B32)&lt;11,YEAR(B32),YEAR(B32)+1),IF(MONTH(B32)&lt;11,MONTH(B32)+2,IF(MONTH(B32)=11,1,2)),1)-1</f>
-        <v>45777</v>
+        <v>46142</v>
       </c>
       <c r="C34" s="253"/>
     </row>
@@ -17041,7 +17041,7 @@
       <c r="A35" s="253"/>
       <c r="B35" s="330">
         <f>DATE(YEAR(B36),MONTH(B36),1)</f>
-        <v>45778</v>
+        <v>46143</v>
       </c>
       <c r="C35" s="253"/>
     </row>
@@ -17049,7 +17049,7 @@
       <c r="A36" s="253"/>
       <c r="B36" s="330">
         <f>DATE(IF(MONTH(B34)&lt;11,YEAR(B34),YEAR(B34)+1),IF(MONTH(B34)&lt;11,MONTH(B34)+2,IF(MONTH(B34)=11,1,2)),1)-1</f>
-        <v>45808</v>
+        <v>46173</v>
       </c>
       <c r="C36" s="253"/>
     </row>
@@ -17057,7 +17057,7 @@
       <c r="A37" s="253"/>
       <c r="B37" s="330">
         <f>DATE(YEAR(B38),MONTH(B38),1)</f>
-        <v>45809</v>
+        <v>46174</v>
       </c>
       <c r="C37" s="253"/>
     </row>
@@ -17065,7 +17065,7 @@
       <c r="A38" s="253"/>
       <c r="B38" s="330">
         <f>DATE(IF(MONTH(B36)&lt;11,YEAR(B36),YEAR(B36)+1),IF(MONTH(B36)&lt;11,MONTH(B36)+2,IF(MONTH(B36)=11,1,2)),1)-1</f>
-        <v>45838</v>
+        <v>46203</v>
       </c>
       <c r="C38" s="253"/>
     </row>
@@ -17073,7 +17073,7 @@
       <c r="A39" s="253"/>
       <c r="B39" s="330">
         <f>DATE(YEAR(B40),MONTH(B40),1)</f>
-        <v>45839</v>
+        <v>46204</v>
       </c>
       <c r="C39" s="253"/>
     </row>
@@ -17081,7 +17081,7 @@
       <c r="A40" s="253"/>
       <c r="B40" s="330">
         <f>DATE(IF(MONTH(B38)&lt;11,YEAR(B38),YEAR(B38)+1),IF(MONTH(B38)&lt;11,MONTH(B38)+2,IF(MONTH(B38)=11,1,2)),1)-1</f>
-        <v>45869</v>
+        <v>46234</v>
       </c>
       <c r="C40" s="253"/>
     </row>
@@ -17089,7 +17089,7 @@
       <c r="A41" s="253"/>
       <c r="B41" s="330">
         <f>DATE(YEAR(B42),MONTH(B42),1)</f>
-        <v>45870</v>
+        <v>46235</v>
       </c>
       <c r="C41" s="253"/>
     </row>
@@ -17097,7 +17097,7 @@
       <c r="A42" s="253"/>
       <c r="B42" s="330">
         <f>DATE(IF(MONTH(B40)&lt;11,YEAR(B40),YEAR(B40)+1),IF(MONTH(B40)&lt;11,MONTH(B40)+2,IF(MONTH(B40)=11,1,2)),1)-1</f>
-        <v>45900</v>
+        <v>46265</v>
       </c>
       <c r="C42" s="253"/>
     </row>
@@ -17105,7 +17105,7 @@
       <c r="A43" s="253"/>
       <c r="B43" s="330">
         <f>DATE(YEAR(B44),MONTH(B44),1)</f>
-        <v>45901</v>
+        <v>46266</v>
       </c>
       <c r="C43" s="253"/>
     </row>
@@ -17113,7 +17113,7 @@
       <c r="A44" s="253"/>
       <c r="B44" s="330">
         <f>DATE(IF(MONTH(B42)&lt;11,YEAR(B42),YEAR(B42)+1),IF(MONTH(B42)&lt;11,MONTH(B42)+2,IF(MONTH(B42)=11,1,2)),1)-1</f>
-        <v>45930</v>
+        <v>46295</v>
       </c>
       <c r="C44" s="253"/>
     </row>
@@ -17121,7 +17121,7 @@
       <c r="A45" s="253"/>
       <c r="B45" s="330">
         <f>DATE(YEAR(B46),MONTH(B46),1)</f>
-        <v>45931</v>
+        <v>46296</v>
       </c>
       <c r="C45" s="253"/>
     </row>
@@ -17129,7 +17129,7 @@
       <c r="A46" s="253"/>
       <c r="B46" s="330">
         <f>DATE(IF(MONTH(B44)&lt;11,YEAR(B44),YEAR(B44)+1),IF(MONTH(B44)&lt;11,MONTH(B44)+2,IF(MONTH(B44)=11,1,2)),1)-1</f>
-        <v>45961</v>
+        <v>46326</v>
       </c>
       <c r="C46" s="253"/>
     </row>
@@ -17137,7 +17137,7 @@
       <c r="A47" s="253"/>
       <c r="B47" s="330">
         <f>DATE(YEAR(B48),MONTH(B48),1)</f>
-        <v>45962</v>
+        <v>46327</v>
       </c>
       <c r="C47" s="253"/>
     </row>
@@ -17145,7 +17145,7 @@
       <c r="A48" s="253"/>
       <c r="B48" s="330">
         <f>DATE(IF(MONTH(B46)&lt;11,YEAR(B46),YEAR(B46)+1),IF(MONTH(B46)&lt;11,MONTH(B46)+2,IF(MONTH(B46)=11,1,2)),1)-1</f>
-        <v>45991</v>
+        <v>46356</v>
       </c>
       <c r="C48" s="253"/>
     </row>
@@ -17153,7 +17153,7 @@
       <c r="A49" s="253"/>
       <c r="B49" s="330">
         <f>DATE(YEAR(B50),MONTH(B50),1)</f>
-        <v>45992</v>
+        <v>46357</v>
       </c>
       <c r="C49" s="253"/>
     </row>
@@ -17161,7 +17161,7 @@
       <c r="A50" s="253"/>
       <c r="B50" s="330">
         <f>DATE(IF(MONTH(B48)&lt;11,YEAR(B48),YEAR(B48)+1),IF(MONTH(B48)&lt;11,MONTH(B48)+2,IF(MONTH(B48)=11,1,2)),1)-1</f>
-        <v>46022</v>
+        <v>46387</v>
       </c>
       <c r="C50" s="253"/>
     </row>
@@ -17169,7 +17169,7 @@
       <c r="A51" s="253"/>
       <c r="B51" s="330">
         <f>DATE(YEAR(B52),MONTH(B52),1)</f>
-        <v>46023</v>
+        <v>46388</v>
       </c>
       <c r="C51" s="253"/>
     </row>
@@ -17177,7 +17177,7 @@
       <c r="A52" s="253"/>
       <c r="B52" s="330">
         <f>DATE(IF(MONTH(B50)&lt;11,YEAR(B50),YEAR(B50)+1),IF(MONTH(B50)&lt;11,MONTH(B50)+2,IF(MONTH(B50)=11,1,2)),1)-1</f>
-        <v>46053</v>
+        <v>46418</v>
       </c>
       <c r="C52" s="253"/>
     </row>
@@ -17185,7 +17185,7 @@
       <c r="A53" s="253"/>
       <c r="B53" s="330">
         <f>DATE(YEAR(B54),MONTH(B54),1)</f>
-        <v>46054</v>
+        <v>46419</v>
       </c>
       <c r="C53" s="253"/>
     </row>
@@ -17193,7 +17193,7 @@
       <c r="A54" s="253"/>
       <c r="B54" s="330">
         <f>DATE(IF(MONTH(B52)&lt;11,YEAR(B52),YEAR(B52)+1),IF(MONTH(B52)&lt;11,MONTH(B52)+2,IF(MONTH(B52)=11,1,2)),1)-1</f>
-        <v>46081</v>
+        <v>46446</v>
       </c>
       <c r="C54" s="253"/>
     </row>
@@ -17201,7 +17201,7 @@
       <c r="A55" s="253"/>
       <c r="B55" s="330">
         <f>DATE(YEAR(B56),MONTH(B56),1)</f>
-        <v>46082</v>
+        <v>46447</v>
       </c>
       <c r="C55" s="253"/>
     </row>
@@ -17209,7 +17209,7 @@
       <c r="A56" s="253"/>
       <c r="B56" s="332">
         <f>DATE(IF(MONTH(B54)&lt;11,YEAR(B54),YEAR(B54)+1),IF(MONTH(B54)&lt;11,MONTH(B54)+2,IF(MONTH(B54)=11,1,2)),1)-1</f>
-        <v>46112</v>
+        <v>46477</v>
       </c>
       <c r="C56" s="253"/>
     </row>
@@ -17332,12 +17332,12 @@
       </c>
       <c r="D1" s="274">
         <f>Admin!B9</f>
-        <v>45383</v>
+        <v>45748</v>
       </c>
       <c r="E1" s="353"/>
       <c r="F1" s="358">
         <f>Admin!B10</f>
-        <v>45412</v>
+        <v>45777</v>
       </c>
       <c r="G1" s="358"/>
       <c r="H1" s="358"/>
@@ -17349,12 +17349,12 @@
       <c r="N1" s="353"/>
       <c r="O1" s="274">
         <f>F1</f>
-        <v>45412</v>
+        <v>45777</v>
       </c>
       <c r="P1" s="353"/>
       <c r="Q1" s="355">
         <f>Admin!B12</f>
-        <v>45443</v>
+        <v>45808</v>
       </c>
       <c r="R1" s="355"/>
       <c r="S1" s="355"/>
@@ -17366,12 +17366,12 @@
       <c r="Y1" s="353"/>
       <c r="Z1" s="274">
         <f>Q1</f>
-        <v>45443</v>
+        <v>45808</v>
       </c>
       <c r="AA1" s="353"/>
       <c r="AB1" s="355">
         <f>Admin!B14</f>
-        <v>45473</v>
+        <v>45838</v>
       </c>
       <c r="AC1" s="355"/>
       <c r="AD1" s="355"/>
@@ -17383,12 +17383,12 @@
       <c r="AJ1" s="353"/>
       <c r="AK1" s="274">
         <f>AB1</f>
-        <v>45473</v>
+        <v>45838</v>
       </c>
       <c r="AL1" s="353"/>
       <c r="AM1" s="355">
         <f>Admin!B16</f>
-        <v>45504</v>
+        <v>45869</v>
       </c>
       <c r="AN1" s="355"/>
       <c r="AO1" s="355"/>
@@ -17400,12 +17400,12 @@
       <c r="AU1" s="353"/>
       <c r="AV1" s="274">
         <f>AM1</f>
-        <v>45504</v>
+        <v>45869</v>
       </c>
       <c r="AW1" s="353"/>
       <c r="AX1" s="355">
         <f>Admin!B18</f>
-        <v>45535</v>
+        <v>45900</v>
       </c>
       <c r="AY1" s="355"/>
       <c r="AZ1" s="355"/>
@@ -17417,12 +17417,12 @@
       <c r="BF1" s="353"/>
       <c r="BG1" s="274">
         <f>AX1</f>
-        <v>45535</v>
+        <v>45900</v>
       </c>
       <c r="BH1" s="353"/>
       <c r="BI1" s="355">
         <f>Admin!B20</f>
-        <v>45565</v>
+        <v>45930</v>
       </c>
       <c r="BJ1" s="355"/>
       <c r="BK1" s="355"/>
@@ -17434,12 +17434,12 @@
       <c r="BQ1" s="353"/>
       <c r="BR1" s="274">
         <f>BI1</f>
-        <v>45565</v>
+        <v>45930</v>
       </c>
       <c r="BS1" s="353"/>
       <c r="BT1" s="355">
         <f>Admin!B22</f>
-        <v>45596</v>
+        <v>45961</v>
       </c>
       <c r="BU1" s="355"/>
       <c r="BV1" s="355"/>
@@ -17451,12 +17451,12 @@
       <c r="CB1" s="355"/>
       <c r="CC1" s="274">
         <f>BT1</f>
-        <v>45596</v>
+        <v>45961</v>
       </c>
       <c r="CD1" s="353"/>
       <c r="CE1" s="355">
         <f>Admin!B24</f>
-        <v>45626</v>
+        <v>45991</v>
       </c>
       <c r="CF1" s="355"/>
       <c r="CG1" s="355"/>
@@ -17468,12 +17468,12 @@
       <c r="CM1" s="355"/>
       <c r="CN1" s="274">
         <f>CE1</f>
-        <v>45626</v>
+        <v>45991</v>
       </c>
       <c r="CO1" s="353"/>
       <c r="CP1" s="355">
         <f>Admin!B26</f>
-        <v>45657</v>
+        <v>46022</v>
       </c>
       <c r="CQ1" s="355"/>
       <c r="CR1" s="355"/>
@@ -17485,12 +17485,12 @@
       <c r="CX1" s="355"/>
       <c r="CY1" s="274">
         <f>CP1</f>
-        <v>45657</v>
+        <v>46022</v>
       </c>
       <c r="CZ1" s="353"/>
       <c r="DA1" s="355">
         <f>Admin!B28</f>
-        <v>45688</v>
+        <v>46053</v>
       </c>
       <c r="DB1" s="355"/>
       <c r="DC1" s="355"/>
@@ -17502,12 +17502,12 @@
       <c r="DI1" s="355"/>
       <c r="DJ1" s="274">
         <f>DA1</f>
-        <v>45688</v>
+        <v>46053</v>
       </c>
       <c r="DK1" s="353"/>
       <c r="DL1" s="355">
         <f>Admin!B30</f>
-        <v>45716</v>
+        <v>46081</v>
       </c>
       <c r="DM1" s="355"/>
       <c r="DN1" s="355"/>
@@ -17519,12 +17519,12 @@
       <c r="DT1" s="355"/>
       <c r="DU1" s="274">
         <f>DL1</f>
-        <v>45716</v>
+        <v>46081</v>
       </c>
       <c r="DV1" s="353"/>
       <c r="DW1" s="355">
         <f>Admin!B32</f>
-        <v>45747</v>
+        <v>46112</v>
       </c>
       <c r="DX1" s="355"/>
       <c r="DY1" s="355"/>
@@ -17536,7 +17536,7 @@
       <c r="EE1" s="355"/>
       <c r="EF1" s="274">
         <f>DW1</f>
-        <v>45747</v>
+        <v>46112</v>
       </c>
       <c r="EG1" s="355"/>
       <c r="EH1" s="355" t="s">
@@ -17545,7 +17545,7 @@
       <c r="EI1" s="355"/>
       <c r="EJ1" s="274">
         <f>EF1</f>
-        <v>45747</v>
+        <v>46112</v>
       </c>
       <c r="EK1" s="355"/>
     </row>
@@ -38651,51 +38651,51 @@
       </c>
       <c r="C1" s="364">
         <f>Admin!B10</f>
-        <v>45412</v>
+        <v>45777</v>
       </c>
       <c r="D1" s="359">
         <f>Admin!B12</f>
-        <v>45443</v>
+        <v>45808</v>
       </c>
       <c r="E1" s="359">
         <f>Admin!B14</f>
-        <v>45473</v>
+        <v>45838</v>
       </c>
       <c r="F1" s="359">
         <f>Admin!B16</f>
-        <v>45504</v>
+        <v>45869</v>
       </c>
       <c r="G1" s="359">
         <f>Admin!B18</f>
-        <v>45535</v>
+        <v>45900</v>
       </c>
       <c r="H1" s="359">
         <f>Admin!B20</f>
-        <v>45565</v>
+        <v>45930</v>
       </c>
       <c r="I1" s="359">
         <f>Admin!B22</f>
-        <v>45596</v>
+        <v>45961</v>
       </c>
       <c r="J1" s="359">
         <f>Admin!B24</f>
-        <v>45626</v>
+        <v>45991</v>
       </c>
       <c r="K1" s="359">
         <f>Admin!B26</f>
-        <v>45657</v>
+        <v>46022</v>
       </c>
       <c r="L1" s="359">
         <f>Admin!B28</f>
-        <v>45688</v>
+        <v>46053</v>
       </c>
       <c r="M1" s="359">
         <f>Admin!B30</f>
-        <v>45716</v>
+        <v>46081</v>
       </c>
       <c r="N1" s="359">
         <f>Admin!B32</f>
-        <v>45747</v>
+        <v>46112</v>
       </c>
       <c r="O1" s="29"/>
     </row>
@@ -38703,7 +38703,7 @@
       <c r="A2" s="362"/>
       <c r="B2" s="280">
         <f>Admin!B32</f>
-        <v>45747</v>
+        <v>46112</v>
       </c>
       <c r="C2" s="365"/>
       <c r="D2" s="360"/>
@@ -41133,7 +41133,7 @@
       </c>
       <c r="D3" s="281">
         <f>Admin!B32</f>
-        <v>45747</v>
+        <v>46112</v>
       </c>
       <c r="E3" s="67"/>
       <c r="H3" s="70"/>
@@ -41160,14 +41160,14 @@
     <row r="5" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A5" s="368">
         <f>Admin!B8</f>
-        <v>45382</v>
+        <v>45747</v>
       </c>
       <c r="B5" s="369"/>
       <c r="C5" s="81"/>
       <c r="D5" s="81"/>
       <c r="E5" s="368">
         <f>D3</f>
-        <v>45747</v>
+        <v>46112</v>
       </c>
       <c r="F5" s="369"/>
       <c r="H5" s="70"/>
@@ -41304,7 +41304,7 @@
       </c>
       <c r="D12" s="283">
         <f>Admin!B9</f>
-        <v>45383</v>
+        <v>45748</v>
       </c>
       <c r="E12" s="58">
         <f>TrialBalance!D19</f>
@@ -41353,7 +41353,7 @@
       </c>
       <c r="D14" s="283">
         <f>D3</f>
-        <v>45747</v>
+        <v>46112</v>
       </c>
       <c r="E14" s="58">
         <f>TrialBalance!EJ19</f>
@@ -42248,18 +42248,18 @@
       </c>
       <c r="D2" s="285">
         <f>'PubP&amp;L'!D3</f>
-        <v>45747</v>
+        <v>46112</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="380">
         <f>'PubP&amp;L'!A5</f>
-        <v>45382</v>
+        <v>45747</v>
       </c>
       <c r="B3" s="369"/>
       <c r="E3" s="380">
         <f>'PubP&amp;L'!E5</f>
-        <v>45747</v>
+        <v>46112</v>
       </c>
       <c r="F3" s="369"/>
     </row>
@@ -42748,7 +42748,7 @@
       </c>
       <c r="B41" s="318">
         <f>D2</f>
-        <v>45747</v>
+        <v>46112</v>
       </c>
       <c r="C41" s="372" t="s">
         <v>552</v>
@@ -42910,7 +42910,7 @@
       <c r="B57" s="379"/>
       <c r="C57" s="76">
         <f ca="1">TODAY()</f>
-        <v>45385</v>
+        <v>45751</v>
       </c>
       <c r="D57" s="76"/>
     </row>
@@ -43084,7 +43084,7 @@
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="286">
         <f>Admin!B9</f>
-        <v>45383</v>
+        <v>45748</v>
       </c>
       <c r="B8" s="71">
         <f>IF([1]Schedule!$E$11&gt;0,[1]Schedule!$E$11,0)</f>
@@ -43172,7 +43172,7 @@
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="286">
         <f>'PubP&amp;L'!D3</f>
-        <v>45747</v>
+        <v>46112</v>
       </c>
       <c r="B11" s="71">
         <f t="shared" ref="B11:G11" si="0">B8+B9-B10</f>
@@ -43221,7 +43221,7 @@
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" s="286">
         <f>A8</f>
-        <v>45383</v>
+        <v>45748</v>
       </c>
       <c r="B14" s="71">
         <f>IF([1]Schedule!$F$11&gt;0,[1]Schedule!$F$11,0)</f>
@@ -43309,7 +43309,7 @@
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" s="286">
         <f>A11</f>
-        <v>45747</v>
+        <v>46112</v>
       </c>
       <c r="B17" s="71">
         <f>B14-B16+B15</f>
@@ -43358,7 +43358,7 @@
     <row r="20" spans="1:7" ht="13" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A20" s="286">
         <f>A11</f>
-        <v>45747</v>
+        <v>46112</v>
       </c>
       <c r="B20" s="89">
         <f t="shared" ref="B20:G20" si="1">B11-B17</f>
@@ -43489,7 +43489,7 @@
       <c r="B38" s="37"/>
       <c r="D38" s="384">
         <f>'PubP&amp;L'!D3</f>
-        <v>45747</v>
+        <v>46112</v>
       </c>
       <c r="E38" s="384"/>
       <c r="F38" s="91">
@@ -43509,7 +43509,7 @@
       </c>
       <c r="B41" s="384">
         <f>'PubP&amp;L'!D3</f>
-        <v>45747</v>
+        <v>46112</v>
       </c>
       <c r="C41" s="384"/>
       <c r="D41" s="91">
@@ -43596,7 +43596,7 @@
       <c r="E22" s="351"/>
       <c r="F22" s="416">
         <f>PubBalSht!D2</f>
-        <v>45747</v>
+        <v>46112</v>
       </c>
       <c r="G22" s="416"/>
       <c r="H22" s="389"/>
@@ -43715,7 +43715,7 @@
       </c>
       <c r="F65" s="389">
         <f>'PubP&amp;L'!E5</f>
-        <v>45747</v>
+        <v>46112</v>
       </c>
       <c r="G65" s="389"/>
     </row>
@@ -43746,7 +43746,7 @@
       </c>
       <c r="D74" s="408">
         <f ca="1">TODAY()</f>
-        <v>45385</v>
+        <v>45751</v>
       </c>
       <c r="E74" s="409"/>
       <c r="F74" s="409"/>
@@ -43775,7 +43775,7 @@
       <c r="F79" s="402"/>
       <c r="G79" s="403">
         <f>'PubP&amp;L'!E5</f>
-        <v>45747</v>
+        <v>46112</v>
       </c>
       <c r="H79" s="404"/>
       <c r="I79" s="404"/>
@@ -43800,7 +43800,7 @@
       <c r="B82" s="412"/>
       <c r="C82" s="386">
         <f>'PubP&amp;L'!E5</f>
-        <v>45747</v>
+        <v>46112</v>
       </c>
       <c r="D82" s="404"/>
     </row>
@@ -44019,7 +44019,7 @@
       </c>
       <c r="H97" s="386">
         <f>'PubP&amp;L'!E5</f>
-        <v>45747</v>
+        <v>46112</v>
       </c>
       <c r="I97" s="389"/>
     </row>
@@ -44043,7 +44043,7 @@
       </c>
       <c r="H98" s="386">
         <f>'PubP&amp;L'!E5</f>
-        <v>45747</v>
+        <v>46112</v>
       </c>
       <c r="I98" s="389"/>
     </row>
@@ -44225,7 +44225,7 @@
       <c r="G113" s="388"/>
       <c r="H113" s="386">
         <f>'PubP&amp;L'!E5</f>
-        <v>45747</v>
+        <v>46112</v>
       </c>
       <c r="I113" s="389"/>
     </row>
@@ -44288,7 +44288,7 @@
       </c>
       <c r="G119" s="386">
         <f ca="1">TODAY()</f>
-        <v>45385</v>
+        <v>45751</v>
       </c>
       <c r="H119" s="386"/>
     </row>
@@ -44473,7 +44473,7 @@
       <c r="D5" s="433"/>
       <c r="E5" s="434">
         <f>Admin!L6</f>
-        <v>45383</v>
+        <v>45748</v>
       </c>
       <c r="F5" s="392"/>
       <c r="G5" s="176" t="s">
@@ -44481,7 +44481,7 @@
       </c>
       <c r="H5" s="434">
         <f>Admin!N7</f>
-        <v>46112</v>
+        <v>46477</v>
       </c>
       <c r="I5" s="435"/>
       <c r="J5" s="161"/>
@@ -44648,11 +44648,11 @@
       <c r="D15" s="421"/>
       <c r="E15" s="294">
         <f>E5</f>
-        <v>45383</v>
+        <v>45748</v>
       </c>
       <c r="F15" s="294">
         <f>H5</f>
-        <v>46112</v>
+        <v>46477</v>
       </c>
       <c r="G15" s="447">
         <f>Admin!G5</f>
@@ -44678,11 +44678,11 @@
       <c r="D16" s="351"/>
       <c r="E16" s="294">
         <f>E5</f>
-        <v>45383</v>
+        <v>45748</v>
       </c>
       <c r="F16" s="294">
         <f>H5</f>
-        <v>46112</v>
+        <v>46477</v>
       </c>
       <c r="G16" s="447">
         <f>Admin!G6</f>
@@ -44708,7 +44708,7 @@
       <c r="D17" s="351"/>
       <c r="E17" s="454">
         <f>E5</f>
-        <v>45383</v>
+        <v>45748</v>
       </c>
       <c r="F17" s="392"/>
       <c r="G17" s="447">
@@ -44735,11 +44735,11 @@
       <c r="D18" s="351"/>
       <c r="E18" s="294">
         <f>E5</f>
-        <v>45383</v>
+        <v>45748</v>
       </c>
       <c r="F18" s="294">
         <f>H5</f>
-        <v>46112</v>
+        <v>46477</v>
       </c>
       <c r="G18" s="182"/>
       <c r="H18" s="295"/>
@@ -44908,7 +44908,7 @@
       <c r="D28" s="433"/>
       <c r="E28" s="426">
         <f>H5</f>
-        <v>46112</v>
+        <v>46477</v>
       </c>
       <c r="F28" s="426"/>
       <c r="G28" s="161"/>
@@ -45003,15 +45003,15 @@
       </c>
       <c r="C33" s="195">
         <f>Admin!L6</f>
-        <v>45383</v>
+        <v>45748</v>
       </c>
       <c r="D33" s="195">
         <f>Admin!N6</f>
-        <v>45747</v>
+        <v>46112</v>
       </c>
       <c r="E33" s="186">
         <f>Admin!K6</f>
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="F33" s="164">
         <f>IF(K28&gt;0,K28*A33/A35,0)</f>
@@ -45040,15 +45040,15 @@
       </c>
       <c r="C34" s="195">
         <f>Admin!L7</f>
-        <v>45748</v>
+        <v>46113</v>
       </c>
       <c r="D34" s="195">
         <f>Admin!N7</f>
-        <v>46112</v>
+        <v>46477</v>
       </c>
       <c r="E34" s="186">
         <f>Admin!K7</f>
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="F34" s="164">
         <f>IF(K28&gt;0,K28*A34/A35,0)</f>
@@ -45285,11 +45285,11 @@
       <c r="C48" s="453"/>
       <c r="D48" s="300">
         <f>E5</f>
-        <v>45383</v>
+        <v>45748</v>
       </c>
       <c r="E48" s="300">
         <f>H5</f>
-        <v>46112</v>
+        <v>46477</v>
       </c>
       <c r="F48" s="161"/>
       <c r="G48" s="161"/>
@@ -45499,11 +45499,11 @@
       <c r="C57" s="453"/>
       <c r="D57" s="300">
         <f>E5</f>
-        <v>45383</v>
+        <v>45748</v>
       </c>
       <c r="E57" s="300">
         <f>H5</f>
-        <v>46112</v>
+        <v>46477</v>
       </c>
       <c r="F57" s="161"/>
       <c r="G57" s="161"/>
@@ -45641,11 +45641,11 @@
       <c r="C63" s="451"/>
       <c r="D63" s="300">
         <f>E5</f>
-        <v>45383</v>
+        <v>45748</v>
       </c>
       <c r="E63" s="300">
         <f>H5</f>
-        <v>46112</v>
+        <v>46477</v>
       </c>
       <c r="F63" s="161"/>
       <c r="G63" s="161"/>
@@ -45855,11 +45855,11 @@
       <c r="C72" s="421"/>
       <c r="D72" s="300">
         <f>E5</f>
-        <v>45383</v>
+        <v>45748</v>
       </c>
       <c r="E72" s="300">
         <f>H5</f>
-        <v>46112</v>
+        <v>46477</v>
       </c>
       <c r="F72" s="161"/>
       <c r="G72" s="161"/>
@@ -46011,11 +46011,11 @@
       <c r="C79" s="392"/>
       <c r="D79" s="195">
         <f>E5</f>
-        <v>45383</v>
+        <v>45748</v>
       </c>
       <c r="E79" s="301">
         <f>H5</f>
-        <v>46112</v>
+        <v>46477</v>
       </c>
       <c r="F79" s="175">
         <f>SUM(F48:F78)</f>
@@ -46110,11 +46110,11 @@
       <c r="C84" s="438"/>
       <c r="D84" s="309">
         <f>E5</f>
-        <v>45383</v>
+        <v>45748</v>
       </c>
       <c r="E84" s="309">
         <f>H5</f>
-        <v>46112</v>
+        <v>46477</v>
       </c>
       <c r="F84" s="161"/>
       <c r="G84" s="161"/>
@@ -46266,11 +46266,11 @@
       <c r="C91" s="433"/>
       <c r="D91" s="304">
         <f>E5</f>
-        <v>45383</v>
+        <v>45748</v>
       </c>
       <c r="E91" s="304">
         <f>H5</f>
-        <v>46112</v>
+        <v>46477</v>
       </c>
       <c r="F91" s="440" t="s">
         <v>543</v>
@@ -46310,7 +46310,7 @@
       <c r="D93" s="420"/>
       <c r="E93" s="303">
         <f>E5</f>
-        <v>45383</v>
+        <v>45748</v>
       </c>
       <c r="F93" s="311">
         <f>Admin!G6/100</f>
@@ -46331,7 +46331,7 @@
       <c r="C94" s="419"/>
       <c r="D94" s="307">
         <f>E5</f>
-        <v>45383</v>
+        <v>45748</v>
       </c>
       <c r="E94" s="38"/>
       <c r="F94" s="182"/>
@@ -46353,7 +46353,7 @@
       <c r="C95" s="419"/>
       <c r="D95" s="307">
         <f>E5</f>
-        <v>45383</v>
+        <v>45748</v>
       </c>
       <c r="E95" s="38"/>
       <c r="F95" s="182"/>
@@ -46375,7 +46375,7 @@
       <c r="C96" s="419"/>
       <c r="D96" s="307">
         <f>E5</f>
-        <v>45383</v>
+        <v>45748</v>
       </c>
       <c r="E96" s="38"/>
       <c r="F96" s="182"/>
@@ -46397,7 +46397,7 @@
       <c r="C97" s="419"/>
       <c r="D97" s="307">
         <f>E5</f>
-        <v>45383</v>
+        <v>45748</v>
       </c>
       <c r="E97" s="38"/>
       <c r="F97" s="182"/>
@@ -46434,7 +46434,7 @@
       <c r="D99" s="420"/>
       <c r="E99" s="303">
         <f>E5</f>
-        <v>45383</v>
+        <v>45748</v>
       </c>
       <c r="F99" s="311">
         <f>F93</f>
@@ -46492,11 +46492,11 @@
       <c r="D102" s="351"/>
       <c r="E102" s="303">
         <f>E5</f>
-        <v>45383</v>
+        <v>45748</v>
       </c>
       <c r="F102" s="303">
         <f>H5</f>
-        <v>46112</v>
+        <v>46477</v>
       </c>
       <c r="G102" s="308"/>
       <c r="H102" s="308"/>
@@ -48216,7 +48216,7 @@
       <c r="A33" s="198"/>
       <c r="B33" s="576">
         <f>Admin!L6</f>
-        <v>45383</v>
+        <v>45748</v>
       </c>
       <c r="C33" s="577"/>
       <c r="D33" s="578"/>
@@ -48230,7 +48230,7 @@
       <c r="L33" s="198"/>
       <c r="M33" s="576">
         <f>Admin!N7</f>
-        <v>46112</v>
+        <v>46477</v>
       </c>
       <c r="N33" s="577"/>
       <c r="O33" s="578"/>
@@ -52790,7 +52790,7 @@
       </c>
       <c r="C126" s="545">
         <f>CorporationTax!E33</f>
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="D126" s="546"/>
       <c r="E126" s="546"/>
